--- a/website/Cart.xlsx
+++ b/website/Cart.xlsx
@@ -1,78 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damie\PycharmProjects\pythonProject1\AppDev\website\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE322110-5F24-4BB7-884C-CBB2EA87B651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5565" windowWidth="38640" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="8910" yWindow="5565" windowWidth="38640" windowHeight="15435" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="damien" sheetId="2" r:id="rId1"/>
+    <sheet name="damien" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Measurement</t>
-  </si>
-  <si>
-    <t>Ingredient</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>Canned Tomatoes</t>
-  </si>
-  <si>
-    <t>Dried Pasta</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Tablespoon Vegetable Oil</t>
-  </si>
-  <si>
-    <t>Grated Cheese</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -91,22 +51,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -394,82 +413,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Measurement</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Ingredient</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>400</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>150</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>0.5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6">
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>200</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Canned Tomatoes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>75</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Dried Pasta</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Tablespoon Vegetable Oil</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Grated Cheese</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>200</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Canned Tomatoes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>75</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Dried Pasta</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Tablespoon Vegetable Oil</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>20</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Grated Cheese</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/website/Cart.xlsx
+++ b/website/Cart.xlsx
@@ -1,38 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damie\PycharmProjects\pythonProject1\AppDev\website\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE322110-5F24-4BB7-884C-CBB2EA87B651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="8910" yWindow="5565" windowWidth="38640" windowHeight="15435" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="5565" windowWidth="38640" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="damien" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="damien" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Measurement</t>
+  </si>
+  <si>
+    <t>Ingredient</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Canned Tomatoes</t>
+  </si>
+  <si>
+    <t>Dried Pasta</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Tablespoon Vegetable Oil</t>
+  </si>
+  <si>
+    <t>Grated Cheese</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,81 +91,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -413,164 +394,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Measurement</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Ingredient</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>200</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Canned Tomatoes</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>75</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Dried Pasta</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Tablespoon Vegetable Oil</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>20</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Grated Cheese</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>200</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Canned Tomatoes</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>75</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Dried Pasta</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Tablespoon Vegetable Oil</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>20</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Grated Cheese</t>
-        </is>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/website/Cart.xlsx
+++ b/website/Cart.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damie\PycharmProjects\pythonProject1\AppDev\website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damie\PycharmProjects\test\AppDev\website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE322110-5F24-4BB7-884C-CBB2EA87B651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9531CC-A77C-4BED-A8A2-56037F4A5F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5565" windowWidth="38640" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="damien" sheetId="2" r:id="rId1"/>
+    <sheet name="Prices" sheetId="2" r:id="rId1"/>
+    <sheet name="damien" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -40,23 +41,291 @@
     <t>Canned Tomatoes</t>
   </si>
   <si>
-    <t>Dried Pasta</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Tablespoon Vegetable Oil</t>
+    <t>Medium-sized Onion</t>
   </si>
   <si>
     <t>Grated Cheese</t>
+  </si>
+  <si>
+    <t>Ground Pork</t>
+  </si>
+  <si>
+    <t>Anchovy Stock Cube</t>
+  </si>
+  <si>
+    <t>Dried Anchovies</t>
+  </si>
+  <si>
+    <t>Tomato Pasta</t>
+  </si>
+  <si>
+    <t>400 g Canned Tomato, $2.85</t>
+  </si>
+  <si>
+    <t>400 g Dried Pasta, $2.14</t>
+  </si>
+  <si>
+    <t>700 g Onion, $2.42</t>
+  </si>
+  <si>
+    <t>5 Garlic Clove, $2.99</t>
+  </si>
+  <si>
+    <t>10 g Mixed Herbs, $3.97</t>
+  </si>
+  <si>
+    <t>500 ml Vegetable Oil, $1.82</t>
+  </si>
+  <si>
+    <t>150 g Grated Cheese, $5.50</t>
+  </si>
+  <si>
+    <t>1 Carrot, $0.96</t>
+  </si>
+  <si>
+    <t>1 Broccoli, $2.98</t>
+  </si>
+  <si>
+    <t>100 g Baby Corn, $1.21</t>
+  </si>
+  <si>
+    <t>100 g Mushroom, $1.52</t>
+  </si>
+  <si>
+    <t>1 Capsicum, $2.11</t>
+  </si>
+  <si>
+    <t>200 g Unsalted Butter, $6.72</t>
+  </si>
+  <si>
+    <t>200 g Ginger, $1.98</t>
+  </si>
+  <si>
+    <t>250 ml Chicken Stock, $1.50</t>
+  </si>
+  <si>
+    <t>500 g Fresh Tomato, $2.00</t>
+  </si>
+  <si>
+    <t>10 Eggs, $3.75</t>
+  </si>
+  <si>
+    <t>500 g Salt, $0.46</t>
+  </si>
+  <si>
+    <t>1 kg Sugar, $1.80</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scallions, $2.22</t>
+    </r>
+  </si>
+  <si>
+    <t>320 g Chicken, $9.85</t>
+  </si>
+  <si>
+    <t>150 g Green Chilli, $1.99</t>
+  </si>
+  <si>
+    <t>50 g Curry Leaves, $1.37</t>
+  </si>
+  <si>
+    <t>80 g Cumin Seeds, $1.12</t>
+  </si>
+  <si>
+    <t>125 g Turmeric Powder, $1.62</t>
+  </si>
+  <si>
+    <t>125 g Coriander Powder, $0.86</t>
+  </si>
+  <si>
+    <t>200 g Red Chilli Powder, $3.65</t>
+  </si>
+  <si>
+    <t>100 g Garam Masala, $3.17</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">75 g </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Coriander Leaves, $5.98</t>
+    </r>
+  </si>
+  <si>
+    <t>Tortilla $4.19 8 per pack</t>
+  </si>
+  <si>
+    <t>Chicken Breast $5.66 300g</t>
+  </si>
+  <si>
+    <t>Lettuce $3.14 200g</t>
+  </si>
+  <si>
+    <t>Slices of Bacon $7.95 300g</t>
+  </si>
+  <si>
+    <t>Fresh Tomato $2.00 500 g</t>
+  </si>
+  <si>
+    <t>Onion $2.42 700 g</t>
+  </si>
+  <si>
+    <t>Avocado $4.50 2pc</t>
+  </si>
+  <si>
+    <t>Shredded Cheese $1.50 150g</t>
+  </si>
+  <si>
+    <t>Ranch Dressing $7.90 235ml</t>
+  </si>
+  <si>
+    <t>Hot Sauce $4.34 280ml</t>
+  </si>
+  <si>
+    <t>Vegetable Stir Fry</t>
+  </si>
+  <si>
+    <t>Quinoa Salad Bowl</t>
+  </si>
+  <si>
+    <t>1kg Quinoa Rice $8.50</t>
+  </si>
+  <si>
+    <t> 215g hummus $6.45</t>
+  </si>
+  <si>
+    <t>300g Lemon $2.21</t>
+  </si>
+  <si>
+    <t>132g Olive Oil $5.85</t>
+  </si>
+  <si>
+    <t>60g Arugula $5.95 </t>
+  </si>
+  <si>
+    <t>1 Pumpkin $3.82</t>
+  </si>
+  <si>
+    <t>1 Broccoli $2.98</t>
+  </si>
+  <si>
+    <t>150g Almond $4.80</t>
+  </si>
+  <si>
+    <t>300g Red Pepper $2.00</t>
+  </si>
+  <si>
+    <t>Tomato Eggs</t>
+  </si>
+  <si>
+    <t>Chicken Curry</t>
+  </si>
+  <si>
+    <t>Chicken Wraps</t>
+  </si>
+  <si>
+    <t>Ban Mian</t>
+  </si>
+  <si>
+    <t>300g ground pork $3.85</t>
+  </si>
+  <si>
+    <t>500ml anchovy stock cube $3.70</t>
+  </si>
+  <si>
+    <t>100g dried anchovies $2.32</t>
+  </si>
+  <si>
+    <t>140g shallots $1.98</t>
+  </si>
+  <si>
+    <t>1 packet (95g) packet pan mee $3.02</t>
+  </si>
+  <si>
+    <t>440 sweet leaves $6.50</t>
+  </si>
+  <si>
+    <t>Exclude salt, pepper, cornflour, water</t>
+  </si>
+  <si>
+    <t>Tom Yum Soup</t>
+  </si>
+  <si>
+    <t>Chicken Stock $1.50 250 ml</t>
+  </si>
+  <si>
+    <t>Stalk Lemongrass $1.40 200g</t>
+  </si>
+  <si>
+    <t>Galangal $3.95 600g</t>
+  </si>
+  <si>
+    <t>Tom Yum Chilli Paste $8.80 200g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaffir Lime Leaf $9.90 300ml </t>
+  </si>
+  <si>
+    <t>Oyster Mushrooms $1.38 250g</t>
+  </si>
+  <si>
+    <t>Thai Chilli Pepper $1.15 100g</t>
+  </si>
+  <si>
+    <t>Large Shrimp $15.88 1Kg</t>
+  </si>
+  <si>
+    <t>Sugar $1.80 1Kg</t>
+  </si>
+  <si>
+    <t>Lime Juice $11.91 370ml</t>
+  </si>
+  <si>
+    <t>Fresh Cilantro Leaves $5.98 75g</t>
+  </si>
+  <si>
+    <t>Steamed Eggs</t>
+  </si>
+  <si>
+    <t>Chicken broth $1.50 250ml</t>
+  </si>
+  <si>
+    <t>Soy Sauce $2.55 640ml</t>
+  </si>
+  <si>
+    <t>Sesame Oil $7.65 750ml</t>
+  </si>
+  <si>
+    <t>Green Onions $1.61 100g</t>
+  </si>
+  <si>
+    <t>White Pepper $2.14 25g</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +337,39 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,9 +392,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,16 +714,491 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67446949-FAE1-4584-A641-1B47AB7F7A4B}">
+  <dimension ref="A1:A104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,9 +1212,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -428,31 +1226,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3">
-        <v>150</v>
+        <v>0.25</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>0.5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>7</v>
+      </c>
       <c r="B5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -461,15 +1268,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>7</v>
+      </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
+      <c r="D7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/website/Cart.xlsx
+++ b/website/Cart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Prices" sheetId="1" state="visible" r:id="rId1"/>
@@ -62,7 +62,9 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,12 +108,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,15 +481,15 @@
   </sheetPr>
   <dimension ref="A1:BS32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView tabSelected="1" topLeftCell="BH1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BT14" sqref="BT14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="16.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="13.28515625" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="9.42578125" customWidth="1" min="22" max="22"/>
+    <col width="16.1796875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="13.26953125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="9.453125" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -513,7 +515,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Garlic Clove</t>
+          <t>Garlic Cloves</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -843,7 +845,7 @@
       </c>
       <c r="BS1" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>Water</t>
         </is>
       </c>
     </row>
@@ -1070,214 +1072,214 @@
           <t>Price</t>
         </is>
       </c>
-      <c r="B3" s="10" t="n">
+      <c r="B3" s="11" t="n">
         <v>2.85</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C3" s="11" t="n">
         <v>2.14</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="11" t="n">
         <v>2.42</v>
       </c>
-      <c r="E3" s="10" t="n">
+      <c r="E3" s="11" t="n">
         <v>1.8</v>
       </c>
-      <c r="F3" s="10" t="n">
+      <c r="F3" s="11" t="n">
         <v>3.97</v>
       </c>
-      <c r="G3" s="10" t="n">
+      <c r="G3" s="11" t="n">
         <v>1.82</v>
       </c>
-      <c r="H3" s="10" t="n">
+      <c r="H3" s="11" t="n">
         <v>5.5</v>
       </c>
-      <c r="I3" s="10" t="n">
+      <c r="I3" s="11" t="n">
         <v>0.96</v>
       </c>
-      <c r="J3" s="10" t="n">
+      <c r="J3" s="11" t="n">
         <v>2.98</v>
       </c>
-      <c r="K3" s="10" t="n">
+      <c r="K3" s="11" t="n">
         <v>1.21</v>
       </c>
-      <c r="L3" s="10" t="n">
+      <c r="L3" s="11" t="n">
         <v>1.52</v>
       </c>
-      <c r="M3" s="10" t="n">
+      <c r="M3" s="11" t="n">
         <v>2.11</v>
       </c>
-      <c r="N3" s="10" t="n">
+      <c r="N3" s="11" t="n">
         <v>6.72</v>
       </c>
-      <c r="O3" s="10" t="n">
+      <c r="O3" s="11" t="n">
         <v>1.98</v>
       </c>
-      <c r="P3" s="10" t="n">
+      <c r="P3" s="11" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q3" s="10" t="n">
+      <c r="Q3" s="11" t="n">
         <v>8.5</v>
       </c>
-      <c r="R3" s="10" t="n">
+      <c r="R3" s="11" t="n">
         <v>6.45</v>
       </c>
-      <c r="S3" s="10" t="n">
+      <c r="S3" s="11" t="n">
         <v>2.21</v>
       </c>
-      <c r="T3" s="10" t="n">
+      <c r="T3" s="11" t="n">
         <v>5.85</v>
       </c>
-      <c r="U3" s="10" t="n">
+      <c r="U3" s="11" t="n">
         <v>0.46</v>
       </c>
-      <c r="V3" s="10" t="n">
+      <c r="V3" s="11" t="n">
         <v>5.95</v>
       </c>
-      <c r="W3" s="10" t="n">
+      <c r="W3" s="11" t="n">
         <v>3.82</v>
       </c>
-      <c r="X3" s="10" t="n">
+      <c r="X3" s="11" t="n">
         <v>2.98</v>
       </c>
-      <c r="Y3" s="10" t="n">
+      <c r="Y3" s="11" t="n">
         <v>4.8</v>
       </c>
-      <c r="Z3" s="10" t="n">
+      <c r="Z3" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="AA3" s="10" t="n">
+      <c r="AA3" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="AB3" s="10" t="n">
+      <c r="AB3" s="11" t="n">
         <v>3.75</v>
       </c>
-      <c r="AC3" s="10" t="n">
+      <c r="AC3" s="11" t="n">
         <v>1.8</v>
       </c>
-      <c r="AD3" s="10" t="n">
+      <c r="AD3" s="11" t="n">
         <v>2.22</v>
       </c>
-      <c r="AE3" s="10" t="n">
+      <c r="AE3" s="11" t="n">
         <v>9.85</v>
       </c>
-      <c r="AF3" s="10" t="n">
+      <c r="AF3" s="11" t="n">
         <v>1.99</v>
       </c>
-      <c r="AG3" s="10" t="n">
+      <c r="AG3" s="11" t="n">
         <v>1.37</v>
       </c>
-      <c r="AH3" s="10" t="n">
+      <c r="AH3" s="11" t="n">
         <v>1.12</v>
       </c>
-      <c r="AI3" s="10" t="n">
+      <c r="AI3" s="11" t="n">
         <v>1.62</v>
       </c>
-      <c r="AJ3" s="10" t="n">
+      <c r="AJ3" s="11" t="n">
         <v>0.86</v>
       </c>
-      <c r="AK3" s="10" t="n">
+      <c r="AK3" s="11" t="n">
         <v>3.65</v>
       </c>
-      <c r="AL3" s="10" t="n">
+      <c r="AL3" s="11" t="n">
         <v>3.17</v>
       </c>
-      <c r="AM3" s="10" t="n">
+      <c r="AM3" s="11" t="n">
         <v>5.98</v>
       </c>
-      <c r="AN3" s="10" t="n">
+      <c r="AN3" s="11" t="n">
         <v>4.19</v>
       </c>
-      <c r="AO3" s="10" t="n">
+      <c r="AO3" s="11" t="n">
         <v>5.66</v>
       </c>
-      <c r="AP3" s="10" t="n">
+      <c r="AP3" s="11" t="n">
         <v>3.14</v>
       </c>
-      <c r="AQ3" s="10" t="n">
+      <c r="AQ3" s="11" t="n">
         <v>7.95</v>
       </c>
-      <c r="AR3" s="10" t="n">
+      <c r="AR3" s="11" t="n">
         <v>4.5</v>
       </c>
-      <c r="AS3" s="10" t="n">
+      <c r="AS3" s="11" t="n">
         <v>1.5</v>
       </c>
-      <c r="AT3" s="10" t="n">
+      <c r="AT3" s="11" t="n">
         <v>7.9</v>
       </c>
-      <c r="AU3" s="10" t="n">
+      <c r="AU3" s="11" t="n">
         <v>4.34</v>
       </c>
-      <c r="AV3" s="10" t="n">
+      <c r="AV3" s="11" t="n">
         <v>3.85</v>
       </c>
-      <c r="AW3" s="10" t="n">
+      <c r="AW3" s="11" t="n">
         <v>0.14</v>
       </c>
-      <c r="AX3" s="10" t="n">
+      <c r="AX3" s="11" t="n">
         <v>3.7</v>
       </c>
-      <c r="AY3" s="10" t="n">
+      <c r="AY3" s="11" t="n">
         <v>2.32</v>
       </c>
-      <c r="AZ3" s="10" t="n">
+      <c r="AZ3" s="11" t="n">
         <v>1.98</v>
       </c>
-      <c r="BA3" s="10" t="n">
+      <c r="BA3" s="11" t="n">
         <v>3.02</v>
       </c>
-      <c r="BB3" s="10" t="n">
+      <c r="BB3" s="11" t="n">
         <v>6.5</v>
       </c>
-      <c r="BC3" s="10" t="n">
+      <c r="BC3" s="11" t="n">
         <v>1.4</v>
       </c>
-      <c r="BD3" s="10" t="n">
+      <c r="BD3" s="11" t="n">
         <v>3.95</v>
       </c>
-      <c r="BE3" s="10" t="n">
+      <c r="BE3" s="11" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="BF3" s="10" t="n">
+      <c r="BF3" s="11" t="n">
         <v>9.9</v>
       </c>
-      <c r="BG3" s="10" t="n">
+      <c r="BG3" s="11" t="n">
         <v>1.38</v>
       </c>
-      <c r="BH3" s="10" t="n">
+      <c r="BH3" s="11" t="n">
         <v>1.15</v>
       </c>
-      <c r="BI3" s="10" t="n">
+      <c r="BI3" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="BJ3" s="10" t="n">
+      <c r="BJ3" s="11" t="n">
         <v>11.91</v>
       </c>
-      <c r="BK3" s="10" t="n">
+      <c r="BK3" s="11" t="n">
         <v>5.98</v>
       </c>
-      <c r="BL3" s="10" t="n">
+      <c r="BL3" s="11" t="n">
         <v>1.5</v>
       </c>
-      <c r="BM3" s="10" t="n">
+      <c r="BM3" s="11" t="n">
         <v>2.55</v>
       </c>
-      <c r="BN3" s="10" t="n">
+      <c r="BN3" s="11" t="n">
         <v>7.65</v>
       </c>
-      <c r="BO3" s="10" t="n">
+      <c r="BO3" s="11" t="n">
         <v>1.61</v>
       </c>
-      <c r="BP3" s="10" t="n">
+      <c r="BP3" s="11" t="n">
         <v>2.14</v>
       </c>
-      <c r="BQ3" s="10" t="n">
+      <c r="BQ3" s="11" t="n">
         <v>1.8</v>
       </c>
-      <c r="BR3" s="10" t="n">
+      <c r="BR3" s="11" t="n">
         <v>2.22</v>
       </c>
-      <c r="BS3" s="11" t="n">
+      <c r="BS3" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1294,7 +1296,7 @@
       <c r="AY7" s="2" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="n"/>
+      <c r="A8" s="13" t="n"/>
       <c r="AY8" s="2" t="n"/>
     </row>
     <row r="9">
@@ -1389,13 +1391,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="inlineStr">
@@ -1423,7 +1425,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Carrot</t>
+          <t>Capsicum</t>
         </is>
       </c>
     </row>
@@ -1432,11 +1434,11 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Capsicum</t>
+          <t>Garlic Cloves</t>
         </is>
       </c>
     </row>
@@ -1445,24 +1447,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.5</v>
+        <v>29.58</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Garlic Cloves</t>
+          <t>Chicken Stock</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>29.58</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Chicken Stock</t>
+          <t>Garlic Cloves</t>
         </is>
       </c>
     </row>
@@ -1471,11 +1473,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Pinch Sugar</t>
         </is>
       </c>
     </row>
@@ -1484,35 +1486,9 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C7" t="inlineStr">
-        <is>
-          <t>Garlic Cloves</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Pinch Sugar</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>Stalk of Scallions</t>
         </is>
@@ -1535,20 +1511,20 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="13" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="C1" s="13" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Ingredient</t>
         </is>

--- a/website/Cart.xlsx
+++ b/website/Cart.xlsx
@@ -9,6 +9,7 @@
     <sheet name="Prices" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="damien" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="yc" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="User123" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -21,7 +22,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -66,6 +67,9 @@
       <b val="1"/>
       <sz val="11"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -87,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -114,6 +118,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1694,4 +1699,40 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="14" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="14" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="14" t="inlineStr">
+        <is>
+          <t>Ingredient</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/website/Cart.xlsx
+++ b/website/Cart.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5250" yWindow="5505" windowWidth="38640" windowHeight="15435" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Prices" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="damien" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="yc" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="User123" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="yc" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="User123" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="damien" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -22,7 +22,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -68,6 +68,11 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -91,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -110,15 +115,16 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,18 +490,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BY32"/>
+  <dimension ref="A1:CG32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BU13" sqref="BU13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16.109375" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="13.33203125" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="10.5546875" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="9.44140625" customWidth="1" min="22" max="22"/>
+    <col width="16.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="13.28515625" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="10.5703125" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="9.42578125" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -884,6 +890,46 @@
           <t>Canned Tomatoes</t>
         </is>
       </c>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t>Mushrooms</t>
+        </is>
+      </c>
+      <c r="CA1" t="inlineStr">
+        <is>
+          <t>Medium-sized Onion</t>
+        </is>
+      </c>
+      <c r="CB1" t="inlineStr">
+        <is>
+          <t>Teaspoon Mixed Herbs</t>
+        </is>
+      </c>
+      <c r="CC1" t="inlineStr">
+        <is>
+          <t>Garlic Clove</t>
+        </is>
+      </c>
+      <c r="CD1" t="inlineStr">
+        <is>
+          <t>Medium Ripe Tomatoes</t>
+        </is>
+      </c>
+      <c r="CE1" t="inlineStr">
+        <is>
+          <t>Tablespoon Cooking Oil</t>
+        </is>
+      </c>
+      <c r="CF1" t="inlineStr">
+        <is>
+          <t>Teaspoon Salt</t>
+        </is>
+      </c>
+      <c r="CG1" t="inlineStr">
+        <is>
+          <t>Pinch Sugar</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="inlineStr">
@@ -916,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="K2" t="n">
         <v>100</v>
@@ -958,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="Y2" t="n">
         <v>150</v>
@@ -1119,6 +1165,30 @@
       <c r="BY2" t="n">
         <v>400</v>
       </c>
+      <c r="BZ2" t="n">
+        <v>250</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>700</v>
+      </c>
+      <c r="CB2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>10</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>500</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>132</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>500</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -1126,233 +1196,257 @@
           <t>Price</t>
         </is>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="12" t="n">
         <v>2.85</v>
       </c>
-      <c r="C3" s="11" t="n">
+      <c r="C3" s="12" t="n">
         <v>2.14</v>
       </c>
-      <c r="D3" s="11" t="n">
+      <c r="D3" s="12" t="n">
         <v>2.42</v>
       </c>
-      <c r="E3" s="11" t="n">
+      <c r="E3" s="12" t="n">
         <v>1.8</v>
       </c>
-      <c r="F3" s="11" t="n">
+      <c r="F3" s="12" t="n">
         <v>3.97</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="12" t="n">
         <v>1.82</v>
       </c>
-      <c r="H3" s="11" t="n">
+      <c r="H3" s="12" t="n">
         <v>5.5</v>
       </c>
-      <c r="I3" s="11" t="n">
+      <c r="I3" s="12" t="n">
         <v>0.96</v>
       </c>
-      <c r="J3" s="11" t="n">
+      <c r="J3" s="12" t="n">
         <v>2.98</v>
       </c>
-      <c r="K3" s="11" t="n">
+      <c r="K3" s="12" t="n">
         <v>1.21</v>
       </c>
-      <c r="L3" s="11" t="n">
+      <c r="L3" s="12" t="n">
         <v>1.52</v>
       </c>
-      <c r="M3" s="11" t="n">
+      <c r="M3" s="12" t="n">
         <v>2.11</v>
       </c>
-      <c r="N3" s="11" t="n">
+      <c r="N3" s="12" t="n">
         <v>6.72</v>
       </c>
-      <c r="O3" s="11" t="n">
+      <c r="O3" s="12" t="n">
         <v>1.98</v>
       </c>
-      <c r="P3" s="11" t="n">
+      <c r="P3" s="12" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q3" s="11" t="n">
+      <c r="Q3" s="12" t="n">
         <v>8.5</v>
       </c>
-      <c r="R3" s="11" t="n">
+      <c r="R3" s="12" t="n">
         <v>6.45</v>
       </c>
-      <c r="S3" s="11" t="n">
+      <c r="S3" s="12" t="n">
         <v>2.21</v>
       </c>
-      <c r="T3" s="11" t="n">
+      <c r="T3" s="12" t="n">
         <v>5.85</v>
       </c>
-      <c r="U3" s="11" t="n">
+      <c r="U3" s="12" t="n">
         <v>0.46</v>
       </c>
-      <c r="V3" s="11" t="n">
+      <c r="V3" s="12" t="n">
         <v>5.95</v>
       </c>
-      <c r="W3" s="11" t="n">
+      <c r="W3" s="12" t="n">
         <v>3.82</v>
       </c>
-      <c r="X3" s="11" t="n">
+      <c r="X3" s="12" t="n">
         <v>2.98</v>
       </c>
-      <c r="Y3" s="11" t="n">
+      <c r="Y3" s="12" t="n">
         <v>4.8</v>
       </c>
-      <c r="Z3" s="11" t="n">
+      <c r="Z3" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="AA3" s="11" t="n">
+      <c r="AA3" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="AB3" s="11" t="n">
+      <c r="AB3" s="12" t="n">
         <v>3.75</v>
       </c>
-      <c r="AC3" s="11" t="n">
+      <c r="AC3" s="12" t="n">
         <v>1.8</v>
       </c>
-      <c r="AD3" s="11" t="n">
+      <c r="AD3" s="12" t="n">
         <v>2.22</v>
       </c>
-      <c r="AE3" s="11" t="n">
+      <c r="AE3" s="12" t="n">
         <v>9.85</v>
       </c>
-      <c r="AF3" s="11" t="n">
+      <c r="AF3" s="12" t="n">
         <v>1.99</v>
       </c>
-      <c r="AG3" s="11" t="n">
+      <c r="AG3" s="12" t="n">
         <v>1.37</v>
       </c>
-      <c r="AH3" s="11" t="n">
+      <c r="AH3" s="12" t="n">
         <v>1.12</v>
       </c>
-      <c r="AI3" s="11" t="n">
+      <c r="AI3" s="12" t="n">
         <v>1.62</v>
       </c>
-      <c r="AJ3" s="11" t="n">
+      <c r="AJ3" s="12" t="n">
         <v>0.86</v>
       </c>
-      <c r="AK3" s="11" t="n">
+      <c r="AK3" s="12" t="n">
         <v>3.65</v>
       </c>
-      <c r="AL3" s="11" t="n">
+      <c r="AL3" s="12" t="n">
         <v>3.17</v>
       </c>
-      <c r="AM3" s="11" t="n">
+      <c r="AM3" s="12" t="n">
         <v>5.98</v>
       </c>
-      <c r="AN3" s="11" t="n">
+      <c r="AN3" s="12" t="n">
         <v>4.19</v>
       </c>
-      <c r="AO3" s="11" t="n">
+      <c r="AO3" s="12" t="n">
         <v>5.66</v>
       </c>
-      <c r="AP3" s="11" t="n">
+      <c r="AP3" s="12" t="n">
         <v>3.14</v>
       </c>
-      <c r="AQ3" s="11" t="n">
+      <c r="AQ3" s="12" t="n">
         <v>7.95</v>
       </c>
-      <c r="AR3" s="11" t="n">
+      <c r="AR3" s="12" t="n">
         <v>4.5</v>
       </c>
-      <c r="AS3" s="11" t="n">
+      <c r="AS3" s="12" t="n">
         <v>1.5</v>
       </c>
-      <c r="AT3" s="11" t="n">
+      <c r="AT3" s="12" t="n">
         <v>7.9</v>
       </c>
-      <c r="AU3" s="11" t="n">
+      <c r="AU3" s="12" t="n">
         <v>4.34</v>
       </c>
-      <c r="AV3" s="11" t="n">
+      <c r="AV3" s="12" t="n">
         <v>3.85</v>
       </c>
-      <c r="AW3" s="11" t="n">
+      <c r="AW3" s="12" t="n">
         <v>0.14</v>
       </c>
-      <c r="AX3" s="11" t="n">
+      <c r="AX3" s="12" t="n">
         <v>3.7</v>
       </c>
-      <c r="AY3" s="11" t="n">
+      <c r="AY3" s="12" t="n">
         <v>2.32</v>
       </c>
-      <c r="AZ3" s="11" t="n">
+      <c r="AZ3" s="12" t="n">
         <v>1.98</v>
       </c>
-      <c r="BA3" s="11" t="n">
+      <c r="BA3" s="12" t="n">
         <v>3.02</v>
       </c>
-      <c r="BB3" s="11" t="n">
+      <c r="BB3" s="12" t="n">
         <v>6.5</v>
       </c>
-      <c r="BC3" s="11" t="n">
+      <c r="BC3" s="12" t="n">
         <v>1.4</v>
       </c>
-      <c r="BD3" s="11" t="n">
+      <c r="BD3" s="12" t="n">
         <v>3.95</v>
       </c>
-      <c r="BE3" s="11" t="n">
+      <c r="BE3" s="12" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="BF3" s="11" t="n">
+      <c r="BF3" s="12" t="n">
         <v>9.9</v>
       </c>
-      <c r="BG3" s="11" t="n">
+      <c r="BG3" s="12" t="n">
         <v>1.38</v>
       </c>
-      <c r="BH3" s="11" t="n">
+      <c r="BH3" s="12" t="n">
         <v>1.15</v>
       </c>
-      <c r="BI3" s="11" t="n">
+      <c r="BI3" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="BJ3" s="11" t="n">
+      <c r="BJ3" s="12" t="n">
         <v>11.91</v>
       </c>
-      <c r="BK3" s="11" t="n">
+      <c r="BK3" s="12" t="n">
         <v>5.98</v>
       </c>
-      <c r="BL3" s="11" t="n">
+      <c r="BL3" s="12" t="n">
         <v>1.5</v>
       </c>
-      <c r="BM3" s="11" t="n">
+      <c r="BM3" s="12" t="n">
         <v>2.55</v>
       </c>
-      <c r="BN3" s="11" t="n">
+      <c r="BN3" s="12" t="n">
         <v>7.65</v>
       </c>
-      <c r="BO3" s="11" t="n">
+      <c r="BO3" s="12" t="n">
         <v>1.61</v>
       </c>
-      <c r="BP3" s="11" t="n">
+      <c r="BP3" s="12" t="n">
         <v>2.14</v>
       </c>
-      <c r="BQ3" s="11" t="n">
+      <c r="BQ3" s="12" t="n">
         <v>1.8</v>
       </c>
-      <c r="BR3" s="11" t="n">
+      <c r="BR3" s="12" t="n">
         <v>2.22</v>
       </c>
-      <c r="BS3" s="12" t="n">
+      <c r="BS3" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BT3" s="11" t="n">
+      <c r="BT3" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="BU3" s="11" t="n">
+      <c r="BU3" s="12" t="n">
         <v>1.82</v>
       </c>
-      <c r="BV3" s="11" t="n">
+      <c r="BV3" s="12" t="n">
         <v>6.72</v>
       </c>
-      <c r="BW3" s="11" t="n">
+      <c r="BW3" s="12" t="n">
         <v>1.98</v>
       </c>
-      <c r="BX3" s="11" t="n">
+      <c r="BX3" s="12" t="n">
         <v>1.52</v>
       </c>
-      <c r="BY3" s="11" t="n">
+      <c r="BY3" s="12" t="n">
         <v>2.85</v>
+      </c>
+      <c r="BZ3" s="12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="CA3" s="12" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="CB3" s="12" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="CC3" s="12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="CD3" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE3" s="12" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="CF3" s="12" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="CG3" s="12" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
@@ -1368,7 +1462,7 @@
       <c r="AY7" s="2" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="n"/>
+      <c r="A8" s="14" t="n"/>
       <c r="AY8" s="2" t="n"/>
     </row>
     <row r="9">
@@ -1463,29 +1557,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="15.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>Ingredient</t>
         </is>
@@ -1493,131 +1584,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>37.5</v>
+        <v>30000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Carrot</t>
+          <t>Canned Tomatoes</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8505</v>
+        <v>200</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Baby Corn</t>
+          <t>Canned Tomatoes</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3000</v>
+        <v>150</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mushrooms</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Capsicum</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>75</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Tablespoon Unsalted Butter</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>112.5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Garlic Cloves</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>300</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Slices of Bacon</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Tomato</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>75</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Onion</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Avocado</t>
+          <t>Dried Pasta</t>
         </is>
       </c>
     </row>
@@ -1627,81 +1627,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Ingredient</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>30000</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Canned Tomatoes</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>200</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Canned Tomatoes</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>150</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Dried Pasta</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1716,19 +1641,81 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="C1" s="14" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Ingredient</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="15" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="15" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="15" t="inlineStr">
+        <is>
+          <t>Ingredient</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Garlic Cloves</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Teaspoon Ginger</t>
         </is>
       </c>
     </row>

--- a/website/Cart.xlsx
+++ b/website/Cart.xlsx
@@ -1668,7 +1668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1698,11 +1698,11 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Garlic Cloves</t>
+          <t>Capsicum</t>
         </is>
       </c>
     </row>
@@ -1715,7 +1715,46 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Tablespoon Vegetable Oil</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Garlic Cloves</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Teaspoon Ginger</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Chicken Stock</t>
         </is>
       </c>
     </row>

--- a/website/Cart.xlsx
+++ b/website/Cart.xlsx
@@ -8,8 +8,7 @@
   <sheets>
     <sheet name="Prices" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="yc" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="User123" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="damien" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="damien" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1632,42 +1631,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Ingredient</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/website/Cart.xlsx
+++ b/website/Cart.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Prices" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="yc" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="damien" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="damien" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="yc" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1556,26 +1556,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="15" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="15" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="15" t="inlineStr">
         <is>
           <t>Ingredient</t>
         </is>
@@ -1583,40 +1583,66 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>30000</v>
+        <v>0.25</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Canned Tomatoes</t>
+          <t>Capsicum</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>200</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Canned Tomatoes</t>
+          <t>Tablespoon Vegetable Oil</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>150</v>
+        <v>0.75</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dried Pasta</t>
+          <t>Garlic Cloves</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Teaspoon Ginger</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Chicken Stock</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1658,66 +1684,27 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.25</v>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Capsicum</t>
+          <t>Medium Ripe Tomatoes</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.5</v>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tablespoon Vegetable Oil</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Garlic Cloves</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Teaspoon Ginger</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>14.79</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Chicken Stock</t>
+          <t>Eggs</t>
         </is>
       </c>
     </row>

--- a/website/Cart.xlsx
+++ b/website/Cart.xlsx
@@ -9,6 +9,7 @@
     <sheet name="Prices" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="damien" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="yc" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="User123" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1711,4 +1712,66 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="15" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="15" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="15" t="inlineStr">
+        <is>
+          <t>Ingredient</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>200</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Canned Tomatoes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>75</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Dried Pasta</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/website/Cart.xlsx
+++ b/website/Cart.xlsx
@@ -1658,7 +1658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1706,6 +1706,32 @@
       <c r="C3" t="inlineStr">
         <is>
           <t>Eggs</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Quinoa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>200</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Canned Tomatoes</t>
         </is>
       </c>
     </row>

--- a/website/Cart.xlsx
+++ b/website/Cart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5250" yWindow="5505" windowWidth="38640" windowHeight="15435" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Prices" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -62,19 +62,6 @@
       <b val="1"/>
       <sz val="11"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <b val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -96,7 +83,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -117,14 +104,11 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,16 +476,16 @@
   </sheetPr>
   <dimension ref="A1:CG32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="16.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="13.28515625" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="10.5703125" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="9.42578125" customWidth="1" min="22" max="22"/>
+    <col width="16.109375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="13.33203125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="10.5546875" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="9.44140625" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1196,256 +1180,256 @@
           <t>Price</t>
         </is>
       </c>
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="10" t="n">
         <v>2.85</v>
       </c>
-      <c r="C3" s="12" t="n">
+      <c r="C3" s="10" t="n">
         <v>2.14</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="10" t="n">
         <v>2.42</v>
       </c>
-      <c r="E3" s="12" t="n">
+      <c r="E3" s="10" t="n">
         <v>1.8</v>
       </c>
-      <c r="F3" s="12" t="n">
+      <c r="F3" s="10" t="n">
         <v>3.97</v>
       </c>
-      <c r="G3" s="12" t="n">
+      <c r="G3" s="10" t="n">
         <v>1.82</v>
       </c>
-      <c r="H3" s="12" t="n">
+      <c r="H3" s="10" t="n">
         <v>5.5</v>
       </c>
-      <c r="I3" s="12" t="n">
+      <c r="I3" s="10" t="n">
         <v>0.96</v>
       </c>
-      <c r="J3" s="12" t="n">
+      <c r="J3" s="10" t="n">
         <v>2.98</v>
       </c>
-      <c r="K3" s="12" t="n">
+      <c r="K3" s="10" t="n">
         <v>1.21</v>
       </c>
-      <c r="L3" s="12" t="n">
+      <c r="L3" s="10" t="n">
         <v>1.52</v>
       </c>
-      <c r="M3" s="12" t="n">
+      <c r="M3" s="10" t="n">
         <v>2.11</v>
       </c>
-      <c r="N3" s="12" t="n">
+      <c r="N3" s="10" t="n">
         <v>6.72</v>
       </c>
-      <c r="O3" s="12" t="n">
+      <c r="O3" s="10" t="n">
         <v>1.98</v>
       </c>
-      <c r="P3" s="12" t="n">
+      <c r="P3" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q3" s="12" t="n">
+      <c r="Q3" s="10" t="n">
         <v>8.5</v>
       </c>
-      <c r="R3" s="12" t="n">
+      <c r="R3" s="10" t="n">
         <v>6.45</v>
       </c>
-      <c r="S3" s="12" t="n">
+      <c r="S3" s="10" t="n">
         <v>2.21</v>
       </c>
-      <c r="T3" s="12" t="n">
+      <c r="T3" s="10" t="n">
         <v>5.85</v>
       </c>
-      <c r="U3" s="12" t="n">
+      <c r="U3" s="10" t="n">
         <v>0.46</v>
       </c>
-      <c r="V3" s="12" t="n">
+      <c r="V3" s="10" t="n">
         <v>5.95</v>
       </c>
-      <c r="W3" s="12" t="n">
+      <c r="W3" s="10" t="n">
         <v>3.82</v>
       </c>
-      <c r="X3" s="12" t="n">
+      <c r="X3" s="10" t="n">
         <v>2.98</v>
       </c>
-      <c r="Y3" s="12" t="n">
+      <c r="Y3" s="10" t="n">
         <v>4.8</v>
       </c>
-      <c r="Z3" s="12" t="n">
+      <c r="Z3" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="10" t="n">
         <v>3.75</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="10" t="n">
         <v>1.8</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="10" t="n">
         <v>2.22</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="10" t="n">
         <v>9.85</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="10" t="n">
         <v>1.99</v>
       </c>
-      <c r="AG3" s="12" t="n">
+      <c r="AG3" s="10" t="n">
         <v>1.37</v>
       </c>
-      <c r="AH3" s="12" t="n">
+      <c r="AH3" s="10" t="n">
         <v>1.12</v>
       </c>
-      <c r="AI3" s="12" t="n">
+      <c r="AI3" s="10" t="n">
         <v>1.62</v>
       </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AJ3" s="10" t="n">
         <v>0.86</v>
       </c>
-      <c r="AK3" s="12" t="n">
+      <c r="AK3" s="10" t="n">
         <v>3.65</v>
       </c>
-      <c r="AL3" s="12" t="n">
+      <c r="AL3" s="10" t="n">
         <v>3.17</v>
       </c>
-      <c r="AM3" s="12" t="n">
+      <c r="AM3" s="10" t="n">
         <v>5.98</v>
       </c>
-      <c r="AN3" s="12" t="n">
+      <c r="AN3" s="10" t="n">
         <v>4.19</v>
       </c>
-      <c r="AO3" s="12" t="n">
+      <c r="AO3" s="10" t="n">
         <v>5.66</v>
       </c>
-      <c r="AP3" s="12" t="n">
+      <c r="AP3" s="10" t="n">
         <v>3.14</v>
       </c>
-      <c r="AQ3" s="12" t="n">
+      <c r="AQ3" s="10" t="n">
         <v>7.95</v>
       </c>
-      <c r="AR3" s="12" t="n">
+      <c r="AR3" s="10" t="n">
         <v>4.5</v>
       </c>
-      <c r="AS3" s="12" t="n">
+      <c r="AS3" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="AT3" s="12" t="n">
+      <c r="AT3" s="10" t="n">
         <v>7.9</v>
       </c>
-      <c r="AU3" s="12" t="n">
+      <c r="AU3" s="10" t="n">
         <v>4.34</v>
       </c>
-      <c r="AV3" s="12" t="n">
+      <c r="AV3" s="10" t="n">
         <v>3.85</v>
       </c>
-      <c r="AW3" s="12" t="n">
+      <c r="AW3" s="10" t="n">
         <v>0.14</v>
       </c>
-      <c r="AX3" s="12" t="n">
+      <c r="AX3" s="10" t="n">
         <v>3.7</v>
       </c>
-      <c r="AY3" s="12" t="n">
+      <c r="AY3" s="10" t="n">
         <v>2.32</v>
       </c>
-      <c r="AZ3" s="12" t="n">
+      <c r="AZ3" s="10" t="n">
         <v>1.98</v>
       </c>
-      <c r="BA3" s="12" t="n">
+      <c r="BA3" s="10" t="n">
         <v>3.02</v>
       </c>
-      <c r="BB3" s="12" t="n">
+      <c r="BB3" s="10" t="n">
         <v>6.5</v>
       </c>
-      <c r="BC3" s="12" t="n">
+      <c r="BC3" s="10" t="n">
         <v>1.4</v>
       </c>
-      <c r="BD3" s="12" t="n">
+      <c r="BD3" s="10" t="n">
         <v>3.95</v>
       </c>
-      <c r="BE3" s="12" t="n">
+      <c r="BE3" s="10" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="BF3" s="12" t="n">
+      <c r="BF3" s="10" t="n">
         <v>9.9</v>
       </c>
-      <c r="BG3" s="12" t="n">
+      <c r="BG3" s="10" t="n">
         <v>1.38</v>
       </c>
-      <c r="BH3" s="12" t="n">
+      <c r="BH3" s="10" t="n">
         <v>1.15</v>
       </c>
-      <c r="BI3" s="12" t="n">
+      <c r="BI3" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="BJ3" s="12" t="n">
+      <c r="BJ3" s="10" t="n">
         <v>11.91</v>
       </c>
-      <c r="BK3" s="12" t="n">
+      <c r="BK3" s="10" t="n">
         <v>5.98</v>
       </c>
-      <c r="BL3" s="12" t="n">
+      <c r="BL3" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="BM3" s="12" t="n">
+      <c r="BM3" s="10" t="n">
         <v>2.55</v>
       </c>
-      <c r="BN3" s="12" t="n">
+      <c r="BN3" s="10" t="n">
         <v>7.65</v>
       </c>
-      <c r="BO3" s="12" t="n">
+      <c r="BO3" s="10" t="n">
         <v>1.61</v>
       </c>
-      <c r="BP3" s="12" t="n">
+      <c r="BP3" s="10" t="n">
         <v>2.14</v>
       </c>
-      <c r="BQ3" s="12" t="n">
+      <c r="BQ3" s="10" t="n">
         <v>1.8</v>
       </c>
-      <c r="BR3" s="12" t="n">
+      <c r="BR3" s="10" t="n">
         <v>2.22</v>
       </c>
-      <c r="BS3" s="13" t="n">
+      <c r="BS3" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BT3" s="12" t="n">
+      <c r="BT3" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="BU3" s="12" t="n">
+      <c r="BU3" s="10" t="n">
         <v>1.82</v>
       </c>
-      <c r="BV3" s="12" t="n">
+      <c r="BV3" s="10" t="n">
         <v>6.72</v>
       </c>
-      <c r="BW3" s="12" t="n">
+      <c r="BW3" s="10" t="n">
         <v>1.98</v>
       </c>
-      <c r="BX3" s="12" t="n">
+      <c r="BX3" s="10" t="n">
         <v>1.52</v>
       </c>
-      <c r="BY3" s="12" t="n">
+      <c r="BY3" s="10" t="n">
         <v>2.85</v>
       </c>
-      <c r="BZ3" s="12" t="n">
+      <c r="BZ3" s="10" t="n">
         <v>1.38</v>
       </c>
-      <c r="CA3" s="12" t="n">
+      <c r="CA3" s="10" t="n">
         <v>2.42</v>
       </c>
-      <c r="CB3" s="12" t="n">
+      <c r="CB3" s="10" t="n">
         <v>3.97</v>
       </c>
-      <c r="CC3" s="12" t="n">
+      <c r="CC3" s="10" t="n">
         <v>1.8</v>
       </c>
-      <c r="CD3" s="12" t="n">
+      <c r="CD3" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="CE3" s="12" t="n">
+      <c r="CE3" s="10" t="n">
         <v>5.85</v>
       </c>
-      <c r="CF3" s="12" t="n">
+      <c r="CF3" s="10" t="n">
         <v>0.46</v>
       </c>
-      <c r="CG3" s="12" t="n">
+      <c r="CG3" s="10" t="n">
         <v>1.8</v>
       </c>
     </row>
@@ -1462,7 +1446,7 @@
       <c r="AY7" s="2" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="14" t="n"/>
+      <c r="A8" s="12" t="n"/>
       <c r="AY8" s="2" t="n"/>
     </row>
     <row r="9">
@@ -1563,20 +1547,20 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="15" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="C1" s="15" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>Ingredient</t>
         </is>
@@ -1658,26 +1642,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="15" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="C1" s="15" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>Ingredient</t>
         </is>
@@ -1688,50 +1672,11 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Medium Ripe Tomatoes</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>Eggs</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>50</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Quinoa</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>200</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Canned Tomatoes</t>
         </is>
       </c>
     </row>
@@ -1752,20 +1697,20 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="15" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="C1" s="15" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>Ingredient</t>
         </is>

--- a/website/Cart.xlsx
+++ b/website/Cart.xlsx
@@ -9,7 +9,6 @@
     <sheet name="Prices" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="damien" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="yc" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="User123" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1683,66 +1682,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="9" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="9" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="C1" s="9" t="inlineStr">
-        <is>
-          <t>Ingredient</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>200</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Canned Tomatoes</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>75</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Dried Pasta</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/website/Cart.xlsx
+++ b/website/Cart.xlsx
@@ -21,7 +21,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -61,6 +61,9 @@
       <b val="1"/>
       <sz val="11"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -82,7 +85,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -108,6 +111,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/website/Cart.xlsx
+++ b/website/Cart.xlsx
@@ -9,6 +9,7 @@
     <sheet name="Prices" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="damien" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="yc" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="yeechingtann@gmail.com" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1645,7 +1646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -1670,16 +1671,39 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>22</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Eggs</t>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="13" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="13" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="13" t="inlineStr">
+        <is>
+          <t>Ingredient</t>
         </is>
       </c>
     </row>

--- a/website/Cart.xlsx
+++ b/website/Cart.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4350" yWindow="3170" windowWidth="19200" windowHeight="11170" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Prices" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="damien" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="yc" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="yeechingtann@gmail.com" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="User2345" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -22,7 +23,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -63,6 +64,11 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -86,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -107,12 +113,8 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,12 +486,12 @@
       <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="16.109375" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="13.33203125" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="10.5546875" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="9.44140625" customWidth="1" min="22" max="22"/>
+    <col width="16.08984375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="13.36328125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="10.54296875" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="9.453125" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1184,256 +1186,256 @@
           <t>Price</t>
         </is>
       </c>
-      <c r="B3" s="10" t="n">
+      <c r="B3" s="5" t="n">
         <v>2.85</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C3" s="5" t="n">
         <v>2.14</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="5" t="n">
         <v>2.42</v>
       </c>
-      <c r="E3" s="10" t="n">
+      <c r="E3" s="5" t="n">
         <v>1.8</v>
       </c>
-      <c r="F3" s="10" t="n">
+      <c r="F3" s="5" t="n">
         <v>3.97</v>
       </c>
-      <c r="G3" s="10" t="n">
+      <c r="G3" s="5" t="n">
         <v>1.82</v>
       </c>
-      <c r="H3" s="10" t="n">
+      <c r="H3" s="5" t="n">
         <v>5.5</v>
       </c>
-      <c r="I3" s="10" t="n">
+      <c r="I3" s="5" t="n">
         <v>0.96</v>
       </c>
-      <c r="J3" s="10" t="n">
+      <c r="J3" s="5" t="n">
         <v>2.98</v>
       </c>
-      <c r="K3" s="10" t="n">
+      <c r="K3" s="5" t="n">
         <v>1.21</v>
       </c>
-      <c r="L3" s="10" t="n">
+      <c r="L3" s="5" t="n">
         <v>1.52</v>
       </c>
-      <c r="M3" s="10" t="n">
+      <c r="M3" s="5" t="n">
         <v>2.11</v>
       </c>
-      <c r="N3" s="10" t="n">
+      <c r="N3" s="5" t="n">
         <v>6.72</v>
       </c>
-      <c r="O3" s="10" t="n">
+      <c r="O3" s="5" t="n">
         <v>1.98</v>
       </c>
-      <c r="P3" s="10" t="n">
+      <c r="P3" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q3" s="10" t="n">
+      <c r="Q3" s="5" t="n">
         <v>8.5</v>
       </c>
-      <c r="R3" s="10" t="n">
+      <c r="R3" s="5" t="n">
         <v>6.45</v>
       </c>
-      <c r="S3" s="10" t="n">
+      <c r="S3" s="5" t="n">
         <v>2.21</v>
       </c>
-      <c r="T3" s="10" t="n">
+      <c r="T3" s="5" t="n">
         <v>5.85</v>
       </c>
-      <c r="U3" s="10" t="n">
+      <c r="U3" s="5" t="n">
         <v>0.46</v>
       </c>
-      <c r="V3" s="10" t="n">
+      <c r="V3" s="5" t="n">
         <v>5.95</v>
       </c>
-      <c r="W3" s="10" t="n">
+      <c r="W3" s="5" t="n">
         <v>3.82</v>
       </c>
-      <c r="X3" s="10" t="n">
+      <c r="X3" s="5" t="n">
         <v>2.98</v>
       </c>
-      <c r="Y3" s="10" t="n">
+      <c r="Y3" s="5" t="n">
         <v>4.8</v>
       </c>
-      <c r="Z3" s="10" t="n">
+      <c r="Z3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AA3" s="10" t="n">
+      <c r="AA3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AB3" s="10" t="n">
+      <c r="AB3" s="5" t="n">
         <v>3.75</v>
       </c>
-      <c r="AC3" s="10" t="n">
+      <c r="AC3" s="5" t="n">
         <v>1.8</v>
       </c>
-      <c r="AD3" s="10" t="n">
+      <c r="AD3" s="5" t="n">
         <v>2.22</v>
       </c>
-      <c r="AE3" s="10" t="n">
+      <c r="AE3" s="5" t="n">
         <v>9.85</v>
       </c>
-      <c r="AF3" s="10" t="n">
+      <c r="AF3" s="5" t="n">
         <v>1.99</v>
       </c>
-      <c r="AG3" s="10" t="n">
+      <c r="AG3" s="5" t="n">
         <v>1.37</v>
       </c>
-      <c r="AH3" s="10" t="n">
+      <c r="AH3" s="5" t="n">
         <v>1.12</v>
       </c>
-      <c r="AI3" s="10" t="n">
+      <c r="AI3" s="5" t="n">
         <v>1.62</v>
       </c>
-      <c r="AJ3" s="10" t="n">
+      <c r="AJ3" s="5" t="n">
         <v>0.86</v>
       </c>
-      <c r="AK3" s="10" t="n">
+      <c r="AK3" s="5" t="n">
         <v>3.65</v>
       </c>
-      <c r="AL3" s="10" t="n">
+      <c r="AL3" s="5" t="n">
         <v>3.17</v>
       </c>
-      <c r="AM3" s="10" t="n">
+      <c r="AM3" s="5" t="n">
         <v>5.98</v>
       </c>
-      <c r="AN3" s="10" t="n">
+      <c r="AN3" s="5" t="n">
         <v>4.19</v>
       </c>
-      <c r="AO3" s="10" t="n">
+      <c r="AO3" s="5" t="n">
         <v>5.66</v>
       </c>
-      <c r="AP3" s="10" t="n">
+      <c r="AP3" s="5" t="n">
         <v>3.14</v>
       </c>
-      <c r="AQ3" s="10" t="n">
+      <c r="AQ3" s="5" t="n">
         <v>7.95</v>
       </c>
-      <c r="AR3" s="10" t="n">
+      <c r="AR3" s="5" t="n">
         <v>4.5</v>
       </c>
-      <c r="AS3" s="10" t="n">
+      <c r="AS3" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="AT3" s="10" t="n">
+      <c r="AT3" s="5" t="n">
         <v>7.9</v>
       </c>
-      <c r="AU3" s="10" t="n">
+      <c r="AU3" s="5" t="n">
         <v>4.34</v>
       </c>
-      <c r="AV3" s="10" t="n">
+      <c r="AV3" s="5" t="n">
         <v>3.85</v>
       </c>
-      <c r="AW3" s="10" t="n">
+      <c r="AW3" s="5" t="n">
         <v>0.14</v>
       </c>
-      <c r="AX3" s="10" t="n">
+      <c r="AX3" s="5" t="n">
         <v>3.7</v>
       </c>
-      <c r="AY3" s="10" t="n">
+      <c r="AY3" s="5" t="n">
         <v>2.32</v>
       </c>
-      <c r="AZ3" s="10" t="n">
+      <c r="AZ3" s="5" t="n">
         <v>1.98</v>
       </c>
-      <c r="BA3" s="10" t="n">
+      <c r="BA3" s="5" t="n">
         <v>3.02</v>
       </c>
-      <c r="BB3" s="10" t="n">
+      <c r="BB3" s="5" t="n">
         <v>6.5</v>
       </c>
-      <c r="BC3" s="10" t="n">
+      <c r="BC3" s="5" t="n">
         <v>1.4</v>
       </c>
-      <c r="BD3" s="10" t="n">
+      <c r="BD3" s="5" t="n">
         <v>3.95</v>
       </c>
-      <c r="BE3" s="10" t="n">
+      <c r="BE3" s="5" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="BF3" s="10" t="n">
+      <c r="BF3" s="5" t="n">
         <v>9.9</v>
       </c>
-      <c r="BG3" s="10" t="n">
+      <c r="BG3" s="5" t="n">
         <v>1.38</v>
       </c>
-      <c r="BH3" s="10" t="n">
+      <c r="BH3" s="5" t="n">
         <v>1.15</v>
       </c>
-      <c r="BI3" s="10" t="n">
+      <c r="BI3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="BJ3" s="10" t="n">
+      <c r="BJ3" s="5" t="n">
         <v>11.91</v>
       </c>
-      <c r="BK3" s="10" t="n">
+      <c r="BK3" s="5" t="n">
         <v>5.98</v>
       </c>
-      <c r="BL3" s="10" t="n">
+      <c r="BL3" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="BM3" s="10" t="n">
+      <c r="BM3" s="5" t="n">
         <v>2.55</v>
       </c>
-      <c r="BN3" s="10" t="n">
+      <c r="BN3" s="5" t="n">
         <v>7.65</v>
       </c>
-      <c r="BO3" s="10" t="n">
+      <c r="BO3" s="5" t="n">
         <v>1.61</v>
       </c>
-      <c r="BP3" s="10" t="n">
+      <c r="BP3" s="5" t="n">
         <v>2.14</v>
       </c>
-      <c r="BQ3" s="10" t="n">
+      <c r="BQ3" s="5" t="n">
         <v>1.8</v>
       </c>
-      <c r="BR3" s="10" t="n">
+      <c r="BR3" s="5" t="n">
         <v>2.22</v>
       </c>
-      <c r="BS3" s="11" t="n">
+      <c r="BS3" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="BT3" s="10" t="n">
+      <c r="BT3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="BU3" s="10" t="n">
+      <c r="BU3" s="5" t="n">
         <v>1.82</v>
       </c>
-      <c r="BV3" s="10" t="n">
+      <c r="BV3" s="5" t="n">
         <v>6.72</v>
       </c>
-      <c r="BW3" s="10" t="n">
+      <c r="BW3" s="5" t="n">
         <v>1.98</v>
       </c>
-      <c r="BX3" s="10" t="n">
+      <c r="BX3" s="5" t="n">
         <v>1.52</v>
       </c>
-      <c r="BY3" s="10" t="n">
+      <c r="BY3" s="5" t="n">
         <v>2.85</v>
       </c>
-      <c r="BZ3" s="10" t="n">
+      <c r="BZ3" s="5" t="n">
         <v>1.38</v>
       </c>
-      <c r="CA3" s="10" t="n">
+      <c r="CA3" s="5" t="n">
         <v>2.42</v>
       </c>
-      <c r="CB3" s="10" t="n">
+      <c r="CB3" s="5" t="n">
         <v>3.97</v>
       </c>
-      <c r="CC3" s="10" t="n">
+      <c r="CC3" s="5" t="n">
         <v>1.8</v>
       </c>
-      <c r="CD3" s="10" t="n">
+      <c r="CD3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="CE3" s="10" t="n">
+      <c r="CE3" s="5" t="n">
         <v>5.85</v>
       </c>
-      <c r="CF3" s="10" t="n">
+      <c r="CF3" s="5" t="n">
         <v>0.46</v>
       </c>
-      <c r="CG3" s="10" t="n">
+      <c r="CG3" s="5" t="n">
         <v>1.8</v>
       </c>
     </row>
@@ -1450,7 +1452,7 @@
       <c r="AY7" s="2" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="n"/>
+      <c r="A8" s="7" t="n"/>
       <c r="AY8" s="2" t="n"/>
     </row>
     <row r="9">
@@ -1551,7 +1553,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="inlineStr">
@@ -1648,11 +1650,11 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="inlineStr">
@@ -1688,20 +1690,56 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="13" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="C1" s="13" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Ingredient</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Ingredient</t>
         </is>
